--- a/spliced/falling/2023-03-25_17-55-03/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-03/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.05152416229248</v>
+        <v>-0.4886150360107422</v>
       </c>
       <c r="D2" t="n">
-        <v>1.264879941940308</v>
+        <v>1.498652458190918</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0860356092453</v>
+        <v>-0.1321379840373993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07155208508758019</v>
+        <v>-0.2070114476715818</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2245558552882243</v>
+        <v>-0.2780065764399136</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4292945370954624</v>
+        <v>0.06705144135391006</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.926494598388672</v>
+        <v>-0.7675657272338867</v>
       </c>
       <c r="D3" t="n">
-        <v>1.048632860183716</v>
+        <v>1.561143398284912</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.377110481262207</v>
+        <v>-0.3004561066627502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078356833142392</v>
+        <v>-0.1988007093177122</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8893119719098612</v>
+        <v>-0.2540031636462492</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.072796183473925</v>
+        <v>0.1641969842945828</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.245864391326904</v>
+        <v>-0.6989822387695312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8565266132354736</v>
+        <v>1.441655874252319</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.664597749710083</v>
+        <v>-0.3177179098129272</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.816982678192506</v>
+        <v>-0.1353515688987338</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.008071380503042</v>
+        <v>-0.4769509890500239</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8789362977532822</v>
+        <v>-0.3330293473075421</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.322721481323242</v>
+        <v>-1.05152416229248</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1786000728607177</v>
+        <v>1.264879941940308</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.3846595287323</v>
+        <v>-1.0860356092453</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.383951094220667</v>
+        <v>0.07155208508758019</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.028157809201409</v>
+        <v>-0.2245558552882243</v>
       </c>
       <c r="H5" t="n">
-        <v>1.267195065231885</v>
+        <v>-0.4292945370954624</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.3012375831604</v>
+        <v>-0.926494598388672</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1157760620117187</v>
+        <v>1.048632860183716</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.529130935668945</v>
+        <v>-1.377110481262207</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002641097587697622</v>
+        <v>0.1078356833142392</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.226918234544642</v>
+        <v>0.8893119719098612</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.07311518577968376</v>
+        <v>-1.072796183473925</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.027910232543945</v>
+        <v>-2.245864391326904</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07773137092590331</v>
+        <v>0.8565266132354736</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.610418319702149</v>
+        <v>-1.664597749710083</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05739438621436738</v>
+        <v>-1.816982678192506</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3178565677474474</v>
+        <v>-1.008071380503042</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.06782400783370307</v>
+        <v>0.8789362977532822</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.616289138793945</v>
+        <v>-3.322721481323242</v>
       </c>
       <c r="D8" t="n">
-        <v>2.10645604133606</v>
+        <v>0.1786000728607177</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.895941138267517</v>
+        <v>-2.3846595287323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2211421999861219</v>
+        <v>-1.383951094220667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7606080525061673</v>
+        <v>-3.028157809201409</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2932871878147121</v>
+        <v>1.267195065231885</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.25627326965332</v>
+        <v>-3.3012375831604</v>
       </c>
       <c r="D9" t="n">
-        <v>3.301170110702514</v>
+        <v>0.1157760620117187</v>
       </c>
       <c r="E9" t="n">
-        <v>2.459498405456543</v>
+        <v>-3.529130935668945</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3466929775827071</v>
+        <v>0.002641097587697622</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7421204044538386</v>
+        <v>-2.226918234544642</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1334111686138545</v>
+        <v>-0.07311518577968376</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-7.072248935699463</v>
+        <v>-4.027910232543945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2452445030212402</v>
+        <v>0.07773137092590331</v>
       </c>
       <c r="E10" t="n">
-        <v>2.613380908966064</v>
+        <v>-3.610418319702149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2910682962221251</v>
+        <v>-0.05739438621436738</v>
       </c>
       <c r="G10" t="n">
-        <v>0.156192847911047</v>
+        <v>-0.3178565677474474</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1568216826109338</v>
+        <v>-0.06782400783370307</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.174159049987793</v>
+        <v>-3.616289138793945</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4089798927307129</v>
+        <v>2.10645604133606</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.180020928382874</v>
+        <v>-1.895941138267517</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602263630313032</v>
+        <v>0.2211421999861219</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2674691440428005</v>
+        <v>0.7606080525061673</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3133019923287284</v>
+        <v>0.2932871878147121</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.068180084228516</v>
+        <v>-2.25627326965332</v>
       </c>
       <c r="D12" t="n">
-        <v>1.132891654968261</v>
+        <v>3.301170110702514</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7215011119842529</v>
+        <v>2.459498405456543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1037392944974057</v>
+        <v>0.3466929775827071</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2239000806037117</v>
+        <v>0.7421204044538386</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09252812099807395</v>
+        <v>0.1334111686138545</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.8879909515380859</v>
+        <v>-7.072248935699463</v>
       </c>
       <c r="D13" t="n">
-        <v>1.976670265197754</v>
+        <v>0.2452445030212402</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6120514869689941</v>
+        <v>2.613380908966064</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03922114302130365</v>
+        <v>0.2910682962221251</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.123502580558556</v>
+        <v>0.156192847911047</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1697846116388542</v>
+        <v>-0.1568216826109338</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.840078353881836</v>
+        <v>2.174159049987793</v>
       </c>
       <c r="D14" t="n">
-        <v>2.134320259094238</v>
+        <v>-0.4089798927307129</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9632197618484496</v>
+        <v>-1.180020928382874</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1511891484260559</v>
+        <v>0.1602263630313032</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-0.2674691440428005</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1252273768186569</v>
+        <v>-0.3133019923287284</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.068455696105957</v>
+        <v>-1.068180084228516</v>
       </c>
       <c r="D15" t="n">
-        <v>1.208448648452759</v>
+        <v>1.132891654968261</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8138270378112793</v>
+        <v>0.7215011119842529</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2799739171476926</v>
+        <v>0.1037392944974057</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2619174543549031</v>
+        <v>-0.2239000806037117</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.07211803425760829</v>
+        <v>0.09252812099807395</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.2797212600708008</v>
+        <v>-0.8879909515380859</v>
       </c>
       <c r="D16" t="n">
-        <v>1.691119432449341</v>
+        <v>1.976670265197754</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5536166429519653</v>
+        <v>0.6120514869689941</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1397983098731321</v>
+        <v>-0.03922114302130365</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09243828934781689</v>
+        <v>-0.123502580558556</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1799896464628332</v>
+        <v>0.1697846116388542</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3462333679199219</v>
+        <v>2.840078353881836</v>
       </c>
       <c r="D17" t="n">
-        <v>2.130516052246094</v>
+        <v>2.134320259094238</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.8037657737731934</v>
+        <v>-0.9632197618484496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07766972043935011</v>
+        <v>-0.1511891484260559</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3104992018026466</v>
+        <v>-0.7874053120613098</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01793069436269673</v>
+        <v>0.1252273768186569</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2171592712402343</v>
+        <v>-0.068455696105957</v>
       </c>
       <c r="D18" t="n">
-        <v>1.026369214057922</v>
+        <v>1.208448648452759</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0172093510627746</v>
+        <v>-0.8138270378112793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03116311123320704</v>
+        <v>-0.2799739171476926</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03599612940760172</v>
+        <v>-0.2619174543549031</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02217979816829464</v>
+        <v>-0.07211803425760829</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1529102325439453</v>
+        <v>-0.2797212600708008</v>
       </c>
       <c r="D19" t="n">
-        <v>1.506775379180908</v>
+        <v>1.691119432449341</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2578078508377075</v>
+        <v>-0.5536166429519653</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.009441461181268051</v>
+        <v>-0.1397983098731321</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03861925794797785</v>
+        <v>0.09243828934781689</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.04366788180435401</v>
+        <v>-0.1799896464628332</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3848018646240234</v>
+        <v>0.3462333679199219</v>
       </c>
       <c r="D20" t="n">
-        <v>1.347866296768188</v>
+        <v>2.130516052246094</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0148896276950836</v>
+        <v>-0.8037657737731934</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007752598523545713</v>
+        <v>0.07766972043935011</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002497362959034508</v>
+        <v>0.3104992018026466</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.003449591643669939</v>
+        <v>0.01793069436269673</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1136503219604492</v>
+        <v>0.2171592712402343</v>
       </c>
       <c r="D21" t="n">
-        <v>1.980222821235657</v>
+        <v>1.026369214057922</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5787848234176636</v>
+        <v>-0.0172093510627746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001572079586741661</v>
+        <v>0.03116311123320704</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006917151677257739</v>
+        <v>0.03599612940760172</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02342847888084016</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0294504165649414</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.665037870407104</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.0812948942184448</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01051945869317818</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.04676712304353709</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.01480449977166512</v>
+        <v>-0.02217979816829464</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-03/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-03/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.4886150360107422</v>
+        <v>-0.5562429428100586</v>
       </c>
       <c r="D2" t="n">
-        <v>1.498652458190918</v>
+        <v>1.515548229217529</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1321379840373993</v>
+        <v>0.1288182139396667</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2070114476715818</v>
+        <v>-0.007375299738829639</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2780065764399136</v>
+        <v>-0.04188020327402392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06705144135391006</v>
+        <v>0.02404832670136416</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.7675657272338867</v>
+        <v>-0.7228193283081055</v>
       </c>
       <c r="D3" t="n">
-        <v>1.561143398284912</v>
+        <v>1.569920063018799</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3004561066627502</v>
+        <v>0.3090478777885437</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1988007093177122</v>
+        <v>0.009710959871025781</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2540031636462492</v>
+        <v>-0.04103577224647274</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1641969842945828</v>
+        <v>-0.004662338863401103</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6989822387695312</v>
+        <v>-0.7100648880004883</v>
       </c>
       <c r="D4" t="n">
-        <v>1.441655874252319</v>
+        <v>1.677208662033081</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3177179098129272</v>
+        <v>0.4076560139656067</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1353515688987338</v>
+        <v>0.04170951860792497</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4769509890500239</v>
+        <v>0.04793495536946196</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3330293473075421</v>
+        <v>-0.07793023174299907</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.05152416229248</v>
+        <v>-0.8624534606933594</v>
       </c>
       <c r="D5" t="n">
-        <v>1.264879941940308</v>
+        <v>1.662384271621704</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.0860356092453</v>
+        <v>0.1703254878520965</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07155208508758019</v>
+        <v>-0.02235946409842538</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2245558552882243</v>
+        <v>-0.01261257046066655</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4292945370954624</v>
+        <v>0.04359601744834121</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.926494598388672</v>
+        <v>-0.2973442077636719</v>
       </c>
       <c r="D6" t="n">
-        <v>1.048632860183716</v>
+        <v>1.564767122268677</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.377110481262207</v>
+        <v>0.0300358235836029</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1078356833142392</v>
+        <v>-0.03681361302733401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8893119719098612</v>
+        <v>-0.006297301829737623</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.072796183473925</v>
+        <v>-0.01943090470398167</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.245864391326904</v>
+        <v>-0.7404184341430664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8565266132354736</v>
+        <v>1.651389360427856</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.664597749710083</v>
+        <v>0.2246546447277069</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.816982678192506</v>
+        <v>0.02995036389021311</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.008071380503042</v>
+        <v>0.01477754981640481</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8789362977532822</v>
+        <v>-0.02054483487325551</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.322721481323242</v>
+        <v>-0.7922754287719727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1786000728607177</v>
+        <v>1.612479209899902</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.3846595287323</v>
+        <v>0.1184005141258239</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.383951094220667</v>
+        <v>0.04258089907029088</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.028157809201409</v>
+        <v>-0.09914881779867053</v>
       </c>
       <c r="H8" t="n">
-        <v>1.267195065231885</v>
+        <v>-0.03582545123336939</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.3012375831604</v>
+        <v>-0.5356760025024414</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1157760620117187</v>
+        <v>1.573039531707764</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.529130935668945</v>
+        <v>0.1370119750499725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002641097587697622</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.226918234544642</v>
+        <v>-0.1950187236070633</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.07311518577968376</v>
+        <v>0.0042760567739605</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.027910232543945</v>
+        <v>-0.6788949966430664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07773137092590331</v>
+        <v>1.517318725585938</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.610418319702149</v>
+        <v>0.1871603727340698</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05739438621436738</v>
+        <v>-0.04207783586838668</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3178565677474474</v>
+        <v>-0.3005187625394148</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06782400783370307</v>
+        <v>0.05587620359352399</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.616289138793945</v>
+        <v>-0.4886150360107422</v>
       </c>
       <c r="D11" t="n">
-        <v>2.10645604133606</v>
+        <v>1.498652458190918</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.895941138267517</v>
+        <v>-0.1321379840373993</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2211421999861219</v>
+        <v>-0.2070114476715818</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7606080525061673</v>
+        <v>-0.2780065764399136</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2932871878147121</v>
+        <v>0.06705144135391006</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.25627326965332</v>
+        <v>-0.7675657272338867</v>
       </c>
       <c r="D12" t="n">
-        <v>3.301170110702514</v>
+        <v>1.561143398284912</v>
       </c>
       <c r="E12" t="n">
-        <v>2.459498405456543</v>
+        <v>-0.3004561066627502</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3466929775827071</v>
+        <v>-0.1988007093177122</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7421204044538386</v>
+        <v>-0.2540031636462492</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1334111686138545</v>
+        <v>0.1641969842945828</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-7.072248935699463</v>
+        <v>-0.6989822387695312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2452445030212402</v>
+        <v>1.441655874252319</v>
       </c>
       <c r="E13" t="n">
-        <v>2.613380908966064</v>
+        <v>-0.3177179098129272</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2910682962221251</v>
+        <v>-0.1353515688987338</v>
       </c>
       <c r="G13" t="n">
-        <v>0.156192847911047</v>
+        <v>-0.4769509890500239</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1568216826109338</v>
+        <v>-0.3330293473075421</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.174159049987793</v>
+        <v>-1.05152416229248</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4089798927307129</v>
+        <v>1.264879941940308</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.180020928382874</v>
+        <v>-1.0860356092453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1602263630313032</v>
+        <v>0.07155208508758019</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2674691440428005</v>
+        <v>-0.2245558552882243</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3133019923287284</v>
+        <v>-0.4292945370954624</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.068180084228516</v>
+        <v>-0.926494598388672</v>
       </c>
       <c r="D15" t="n">
-        <v>1.132891654968261</v>
+        <v>1.048632860183716</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7215011119842529</v>
+        <v>-1.377110481262207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037392944974057</v>
+        <v>0.1078356833142392</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2239000806037117</v>
+        <v>0.8893119719098612</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09252812099807395</v>
+        <v>-1.072796183473925</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.8879909515380859</v>
+        <v>-2.245864391326904</v>
       </c>
       <c r="D16" t="n">
-        <v>1.976670265197754</v>
+        <v>0.8565266132354736</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6120514869689941</v>
+        <v>-1.664597749710083</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03922114302130365</v>
+        <v>-1.816982678192506</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.123502580558556</v>
+        <v>-1.008071380503042</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1697846116388542</v>
+        <v>0.8789362977532822</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.840078353881836</v>
+        <v>-3.322721481323242</v>
       </c>
       <c r="D17" t="n">
-        <v>2.134320259094238</v>
+        <v>0.1786000728607177</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9632197618484496</v>
+        <v>-2.3846595287323</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1511891484260559</v>
+        <v>-1.383951094220667</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-3.028157809201409</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1252273768186569</v>
+        <v>1.267195065231885</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.068455696105957</v>
+        <v>-3.3012375831604</v>
       </c>
       <c r="D18" t="n">
-        <v>1.208448648452759</v>
+        <v>0.1157760620117187</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8138270378112793</v>
+        <v>-3.529130935668945</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2799739171476926</v>
+        <v>0.002641097587697622</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2619174543549031</v>
+        <v>-2.226918234544642</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07211803425760829</v>
+        <v>-0.07311518577968376</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.2797212600708008</v>
+        <v>-4.027910232543945</v>
       </c>
       <c r="D19" t="n">
-        <v>1.691119432449341</v>
+        <v>0.07773137092590331</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5536166429519653</v>
+        <v>-3.610418319702149</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1397983098731321</v>
+        <v>-0.05739438621436738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09243828934781689</v>
+        <v>-0.3178565677474474</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1799896464628332</v>
+        <v>-0.06782400783370307</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3462333679199219</v>
+        <v>-3.616289138793945</v>
       </c>
       <c r="D20" t="n">
-        <v>2.130516052246094</v>
+        <v>2.10645604133606</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.8037657737731934</v>
+        <v>-1.895941138267517</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07766972043935011</v>
+        <v>0.2211421999861219</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3104992018026466</v>
+        <v>0.7606080525061673</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01793069436269673</v>
+        <v>0.2932871878147121</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-2.25627326965332</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.301170110702514</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.459498405456543</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3466929775827071</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7421204044538386</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1334111686138545</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.072248935699463</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2452445030212402</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.613380908966064</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2910682962221251</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.156192847911047</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1568216826109338</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.174159049987793</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.4089798927307129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.180020928382874</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1602263630313032</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2674691440428005</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.3133019923287284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.068180084228516</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.132891654968261</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7215011119842529</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1037392944974057</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2239000806037117</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.09252812099807395</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8879909515380859</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.976670265197754</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6120514869689941</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.03922114302130365</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.123502580558556</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1697846116388542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.840078353881836</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.134320259094238</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.9632197618484496</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1511891484260559</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.7874053120613098</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1252273768186569</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.068455696105957</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.208448648452759</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.8138270378112793</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2799739171476926</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2619174543549031</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.07211803425760829</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2797212600708008</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.691119432449341</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.5536166429519653</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1397983098731321</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.09243828934781689</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.1799896464628332</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3462333679199219</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.130516052246094</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.8037657737731934</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.07766972043935011</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3104992018026466</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01793069436269673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>0.2171592712402343</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>1.026369214057922</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>-0.0172093510627746</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>0.03116311123320704</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>0.03599612940760172</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>-0.02217979816829464</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1529102325439453</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.506775379180908</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2578078508377075</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.009441461181268051</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03861925794797785</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.04366788180435401</v>
       </c>
     </row>
   </sheetData>
